--- a/Project-Management/Timesheets/Ruwen-YI/Timetsheet-w8.xlsx
+++ b/Project-Management/Timesheets/Ruwen-YI/Timetsheet-w8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.WebProject\mci-ruwen-yi\Project-Management\Timesheets\Ruwen-YI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.WebProject\mci-master\Project-Management\Timesheets\Ruwen-YI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5C277B-A7CB-4858-AED1-EBD8BCFC85E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8961904-B85E-4391-A613-F636BA65BF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5976" yWindow="1032" windowWidth="17064" windowHeight="10656" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
     <t>To fulfill milestone 1 report</t>
   </si>
   <si>
-    <t>This week I spent less time on MCI project. The reason was that, as a back end member, I have finished the basic structure of the website and been waiting for front end members to finish their website design and coding. Only after they could finish their works, can I start adding logic to back end and combine the front end and back end together. I expect to spend more time on development next week once they can deliver the html, css, and js code.</t>
+    <t>This week I spent less time on MCI project. The reason is that, as a back end member, I have finished the basic structure of the website and been waiting for front end members to finish their website design and coding. Only after they finish their works, can I start adding routers and logic to back end and combine the front end and back end together. I expect to spend more time on development next week once they can deliver the basic html, css, and js code. Or I will engage in front end development.</t>
   </si>
 </sst>
 </file>
@@ -447,41 +447,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,6 +461,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
@@ -836,7 +836,7 @@
   </sheetPr>
   <dimension ref="A2:AW19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -853,16 +853,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -928,10 +928,10 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:49" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="36">
         <v>44683</v>
       </c>
       <c r="C6" s="15">
@@ -995,8 +995,8 @@
       <c r="AW6" s="5"/>
     </row>
     <row r="7" spans="1:49" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="16">
         <v>0.5625</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="E7" s="4">
         <v>0.5</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -1058,7 +1058,7 @@
       <c r="AW7" s="5"/>
     </row>
     <row r="8" spans="1:49" s="6" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="22">
@@ -1073,7 +1073,7 @@
       <c r="E8" s="23">
         <v>4</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="24" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -1125,10 +1125,10 @@
       <c r="AW8" s="5"/>
     </row>
     <row r="9" spans="1:49" s="6" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="36">
         <v>44685</v>
       </c>
       <c r="C9" s="16">
@@ -1137,10 +1137,10 @@
       <c r="D9" s="16">
         <v>0.4861111111111111</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="32">
         <v>2.6</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="24" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -1192,15 +1192,15 @@
       <c r="AW9" s="5"/>
     </row>
     <row r="10" spans="1:49" s="6" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="16">
         <v>0.125</v>
       </c>
       <c r="D10" s="16">
         <v>0.20833333333333334</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="21" t="s">
         <v>21</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="F11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="28" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="20" t="s">
@@ -1327,9 +1327,9 @@
         <f>SUM(E6:E11)</f>
         <v>8.6</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="36"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1337,34 +1337,34 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:49" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
